--- a/data/trans_bre/P57GLOBAL_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P57GLOBAL_R-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P57GLOBAL_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P57GLOBAL_R-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,88</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,96</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,18%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,82%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,17; 6,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,59; 8,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,67; 9,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,39; 8,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,26; 9,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,74; 11,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,2; 11,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,59; 12,93</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,45</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,57%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,08%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,14; 4,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,19; 11,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,16; 4,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,71; 7,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,1; 6,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,69; 17,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,19; 5,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,66; 12,71</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,87</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,42</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,64%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,01%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,31%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,18%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,84; 2,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,68; 6,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,38; 4,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,82; 1,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,96; 3,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,57; 10,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,09; 5,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,22; 2,55</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,43</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,89</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,36%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,48; 4,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,02; 8,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,09; 4,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,14; 5,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,68; 5,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,74; 12,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,32; 5,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,75; 8,48</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P57GLOBAL_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P57GLOBAL_R-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,96</t>
+          <t>4,19</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>6,24%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 8,45</t>
+          <t>-0,32; 8,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 12,93</t>
+          <t>-0,5; 13,7</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>5,33</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>9,53%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 7,4</t>
+          <t>-3,49; 23,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 12,71</t>
+          <t>-5,52; 60,72</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,42</t>
+          <t>-4,15</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-7,18%</t>
+          <t>-6,81%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 1,57</t>
+          <t>-9,62; 1,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-15,22; 2,55</t>
+          <t>-14,9; 3,19</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>4,04</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>6,91%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 5,14</t>
+          <t>-1,85; 15,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 8,48</t>
+          <t>-2,92; 32,99</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P57GLOBAL_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P57GLOBAL_R-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,17; 6,88</t>
+          <t>-0,1; 6,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,59; 8,0</t>
+          <t>0,89; 8,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,67; 9,51</t>
+          <t>2,33; 9,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 8,76</t>
+          <t>-0,08; 9,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,26; 9,37</t>
+          <t>-0,13; 9,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,74; 11,25</t>
+          <t>1,29; 12,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,2; 11,93</t>
+          <t>2,76; 12,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 13,7</t>
+          <t>-0,14; 15,03</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 4,64</t>
+          <t>-1,96; 4,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,19; 11,4</t>
+          <t>5,26; 11,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,16; 4,7</t>
+          <t>0,42; 5,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 23,95</t>
+          <t>-3,89; 22,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 6,99</t>
+          <t>-2,85; 6,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,69; 17,41</t>
+          <t>7,49; 17,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,19; 5,75</t>
+          <t>0,5; 6,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 60,72</t>
+          <t>-6,26; 52,66</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,84; 2,35</t>
+          <t>-9,85; 1,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 6,84</t>
+          <t>-6,28; 6,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 4,19</t>
+          <t>-6,08; 4,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,62; 1,8</t>
+          <t>-10,08; 0,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,96; 3,36</t>
+          <t>-14,15; 3,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,57; 10,78</t>
+          <t>-8,98; 10,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 5,71</t>
+          <t>-7,67; 6,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-14,9; 3,19</t>
+          <t>-15,5; 1,59</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 4,0</t>
+          <t>-0,28; 4,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,02; 8,52</t>
+          <t>4,32; 8,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,09; 4,76</t>
+          <t>1,24; 4,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 15,68</t>
+          <t>-1,46; 18,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 5,77</t>
+          <t>-0,38; 5,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,74; 12,63</t>
+          <t>6,14; 12,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,32; 5,89</t>
+          <t>1,5; 5,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 32,99</t>
+          <t>-2,3; 40,24</t>
         </is>
       </c>
     </row>
